--- a/Output_excel/06_Means_Littorina.xlsx
+++ b/Output_excel/06_Means_Littorina.xlsx
@@ -8,10 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="ISI" sheetId="1" r:id="rId1"/>
-    <sheet name="Sterile_perc" sheetId="2" r:id="rId2"/>
-    <sheet name="PRL_mean" sheetId="3" r:id="rId3"/>
-    <sheet name="TBT" sheetId="4" r:id="rId4"/>
-    <sheet name="Info" sheetId="5" r:id="rId5"/>
+    <sheet name="I_perc" sheetId="2" r:id="rId2"/>
+    <sheet name="Sterile_perc" sheetId="3" r:id="rId3"/>
+    <sheet name="PRL_mean" sheetId="4" r:id="rId4"/>
+    <sheet name="TBT" sheetId="5" r:id="rId5"/>
+    <sheet name="Info" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -355,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,6 +438,11 @@
           <t>2018</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -447,13 +453,13 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>Reference station
-Langesundsfjord (100 km)</t>
+Langesundfjord (100 km)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Reference station
-Langesundsfjord (100 km)</t>
+Langesundfjord (100 km)</t>
         </is>
       </c>
       <c r="G2">
@@ -515,6 +521,9 @@
       <c r="O3">
         <v>0</v>
       </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -562,6 +571,9 @@
       <c r="O4">
         <v>0</v>
       </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -638,6 +650,9 @@
       <c r="O6">
         <v>0</v>
       </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -665,6 +680,9 @@
         <v>0</v>
       </c>
       <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>0</v>
       </c>
     </row>
@@ -675,7 +693,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -757,6 +775,11 @@
           <t>2018</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -767,26 +790,14 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>Reference station
-Langesundsfjord (100 km)</t>
+Langesundfjord (100 km)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Reference station
-Langesundsfjord (100 km)</t>
-        </is>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
+Langesundfjord (100 km)</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -806,19 +817,19 @@
         </is>
       </c>
       <c r="E3">
-        <v>45.45454545454545</v>
+        <v>54.5</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>45.8</v>
       </c>
       <c r="G3">
-        <v>13.63636363636364</v>
+        <v>18.2</v>
       </c>
       <c r="H3">
-        <v>10.52631578947369</v>
+        <v>10.5</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -827,6 +838,9 @@
         <v>0</v>
       </c>
       <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>0</v>
       </c>
     </row>
@@ -847,33 +861,36 @@
         </is>
       </c>
       <c r="D4">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>56.25</v>
+        <v>62.5</v>
       </c>
       <c r="F4">
-        <v>55.55555555555556</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="G4">
-        <v>64.51612903225806</v>
+        <v>71</v>
       </c>
       <c r="H4">
-        <v>25.64102564102564</v>
+        <v>28.2</v>
       </c>
       <c r="I4">
-        <v>18.18181818181818</v>
+        <v>39.4</v>
       </c>
       <c r="J4">
-        <v>20.68965517241379</v>
+        <v>27.6</v>
       </c>
       <c r="K4">
-        <v>3.225806451612903</v>
+        <v>12.9</v>
       </c>
       <c r="M4">
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
       <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>0</v>
       </c>
     </row>
@@ -894,16 +911,16 @@
         </is>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>70.8</v>
       </c>
       <c r="E5">
-        <v>21.05263157894737</v>
+        <v>26.3</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>16.07142857142857</v>
+        <v>19.6</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -929,7 +946,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -950,6 +967,9 @@
         <v>0</v>
       </c>
       <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>0</v>
       </c>
     </row>
@@ -979,6 +999,9 @@
         <v>0</v>
       </c>
       <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>0</v>
       </c>
     </row>
@@ -989,7 +1012,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1071,6 +1094,11 @@
           <t>2018</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1081,13 +1109,13 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>Reference station
-Langesundsfjord (100 km)</t>
+Langesundfjord (100 km)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Reference station
-Langesundsfjord (100 km)</t>
+Langesundfjord (100 km)</t>
         </is>
       </c>
       <c r="L2">
@@ -1120,16 +1148,16 @@
         </is>
       </c>
       <c r="E3">
-        <v>2.5</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="F3">
-        <v>1.633333333333333</v>
+        <v>25</v>
       </c>
       <c r="G3">
-        <v>0.8181818181818182</v>
+        <v>13.63636363636364</v>
       </c>
       <c r="H3">
-        <v>0.6210526315789474</v>
+        <v>10.52631578947369</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1141,6 +1169,9 @@
         <v>0</v>
       </c>
       <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>0</v>
       </c>
     </row>
@@ -1161,33 +1192,36 @@
         </is>
       </c>
       <c r="D4">
-        <v>5.245</v>
+        <v>95</v>
       </c>
       <c r="E4">
-        <v>2.9875</v>
+        <v>56.25</v>
       </c>
       <c r="F4">
-        <v>3.237037037037037</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="G4">
-        <v>3.151612903225806</v>
+        <v>64.51612903225806</v>
       </c>
       <c r="H4">
-        <v>1.184615384615385</v>
+        <v>25.64102564102564</v>
       </c>
       <c r="I4">
-        <v>0.7</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="J4">
-        <v>0.6413793103448275</v>
+        <v>20.68965517241379</v>
       </c>
       <c r="K4">
-        <v>0.1161290322580645</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="M4">
-        <v>0.103125</v>
+        <v>6.25</v>
       </c>
       <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>0</v>
       </c>
     </row>
@@ -1208,16 +1242,16 @@
         </is>
       </c>
       <c r="D5">
-        <v>1.841666666666667</v>
+        <v>50</v>
       </c>
       <c r="E5">
-        <v>1.310526315789474</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="F5">
-        <v>0.6</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>0.8392857142857143</v>
+        <v>16.07142857142857</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1243,7 +1277,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.176</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1264,6 +1298,9 @@
         <v>0</v>
       </c>
       <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>0</v>
       </c>
     </row>
@@ -1293,6 +1330,9 @@
         <v>0</v>
       </c>
       <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>0</v>
       </c>
     </row>
@@ -1303,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1385,6 +1425,11 @@
           <t>2018</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1395,54 +1440,26 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>Reference station
-Langesundsfjord (100 km)</t>
+Langesundfjord (100 km)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Reference station
-Langesundsfjord (100 km)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>&lt; 1.2</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
+Langesundfjord (100 km)</t>
+        </is>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1461,35 +1478,32 @@
           <t>Inner Vikkilen (0.5 km)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>97.7</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>78.8</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+      <c r="E3">
+        <v>2.5</v>
+      </c>
+      <c r="F3">
+        <v>1.633333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="H3">
+        <v>0.6210526315789474</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1508,50 +1522,38 @@
           <t>Shipyard (0 km)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>148</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>31.3</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>69.8</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>266</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
+      <c r="D4">
+        <v>5.245</v>
+      </c>
+      <c r="E4">
+        <v>2.9875</v>
+      </c>
+      <c r="F4">
+        <v>3.237037037037037</v>
+      </c>
+      <c r="G4">
+        <v>3.151612903225806</v>
+      </c>
+      <c r="H4">
+        <v>1.184615384615385</v>
+      </c>
+      <c r="I4">
+        <v>0.7</v>
+      </c>
+      <c r="J4">
+        <v>0.6413793103448275</v>
+      </c>
+      <c r="K4">
+        <v>0.1161290322580645</v>
+      </c>
+      <c r="M4">
+        <v>0.103125</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1570,20 +1572,23 @@
           <t>Mid Vikkilen (0.8 km)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>35.7</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>120.35</t>
-        </is>
+      <c r="D5">
+        <v>1.841666666666667</v>
+      </c>
+      <c r="E5">
+        <v>1.310526315789474</v>
+      </c>
+      <c r="F5">
+        <v>0.6</v>
+      </c>
+      <c r="G5">
+        <v>0.8392857142857143</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1602,30 +1607,32 @@
           <t>Outer Vikkilen (2 km)</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>30.4</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>11.6</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
+      <c r="D6">
+        <v>0.176</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1644,20 +1651,20 @@
           <t>Håøya (4-6 km)</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1666,6 +1673,375 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Station</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Station_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Station_name2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>71G</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Reference station
+Langesundfjord (100 km)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Reference station
+Langesundfjord (100 km)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>&lt; 1.2</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Inner Vikkilen (0.5 km)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Inner Vikkilen (0.5 km)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.7</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>78.8</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Shipyard (0 km)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Shipyard (0 km)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>31.3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>69.8</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Skjeviga (0.6 km)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mid Vikkilen (0.8 km)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>35.7</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>120.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Outer Vikkilen (2.5 km)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Outer Vikkilen (2 km)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>30.4</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>11.6</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>6.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Håøya (5.5 km)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Håøya (4-6 km)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
